--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173922.2311660469</v>
+        <v>169740.5205939087</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219458</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6710378.753666299</v>
+        <v>6710378.753666295</v>
       </c>
     </row>
     <row r="9">
@@ -1135,13 +1135,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="D8" t="n">
-        <v>119.0839105424605</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>84.20523446244644</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796777</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>113.1567420393868</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>59.19713558983214</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656965</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>45.83379873922949</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742792</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616409</v>
+        <v>13.56162857616406</v>
       </c>
       <c r="S10" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="W10" t="n">
-        <v>8.665287392207167</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>91.32747982963545</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>204.8426041147492</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>355.8085342213283</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>159.4035421198288</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>23.00363867449979</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>396.6628308136119</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>223.5847701307332</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>17.75123914303028</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>173.4164943363256</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>225.6984597147452</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>358.0685425954618</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>89.30668535812433</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>123.9636109289948</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>165.726036934335</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>197.6313432876049</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.331713215186445</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>63.61660906649286</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2323,16 +2323,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>256.6584539847836</v>
       </c>
       <c r="G23" t="n">
-        <v>361.9987888703326</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>53.19117033386421</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>74.42811009354938</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>355.8085342213283</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,10 +2563,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>43.97954181326757</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>340.2352302787474</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>216.4413525895329</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258704</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>170.3034090720313</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3034,19 +3034,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>65.45709821928079</v>
       </c>
       <c r="X32" t="n">
-        <v>137.3573959428969</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>124.9554984777222</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>255.9508505586065</v>
+        <v>401.5266111030793</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3325,10 +3325,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>183.4226826923534</v>
       </c>
       <c r="U37" t="n">
-        <v>64.09103728606671</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>200.8605659702265</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>156.7012890994286</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.9668410237007</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,10 +3720,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>1.426178331047085</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>161.0624844510327</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>300.3443721648039</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,10 +3915,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7.722803593220905</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>205.9670683828389</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>32.52127443762041</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>108.024147713653</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>59.0996691229647</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.98308743153</v>
+        <v>215.2442383059554</v>
       </c>
       <c r="C8" t="n">
-        <v>238.6963091058123</v>
+        <v>94.95745998023726</v>
       </c>
       <c r="D8" t="n">
-        <v>118.4095307800946</v>
+        <v>63.08807919508584</v>
       </c>
       <c r="E8" t="n">
-        <v>33.35373839378505</v>
+        <v>33.35373839378508</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396842</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396842</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396842</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585571</v>
+        <v>23.57954741585563</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558021</v>
+        <v>55.41632306558024</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318067</v>
+        <v>103.1313969318069</v>
       </c>
       <c r="L8" t="n">
-        <v>162.326165318309</v>
+        <v>162.3261653183094</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590924</v>
+        <v>228.1917507590931</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326572</v>
+        <v>295.1231102326581</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336411</v>
+        <v>358.3244950336424</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455656</v>
+        <v>412.2654147455669</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244996</v>
+        <v>452.7727990245012</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="S8" t="n">
-        <v>401.4050834648241</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="T8" t="n">
-        <v>401.4050834648241</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="U8" t="n">
-        <v>401.4050834648241</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="V8" t="n">
-        <v>401.4050834648241</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="W8" t="n">
-        <v>400.5900329162615</v>
+        <v>362.0359027361197</v>
       </c>
       <c r="X8" t="n">
-        <v>385.4879735359762</v>
+        <v>241.7491244104016</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.2422538760337</v>
+        <v>237.5034047504591</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396842</v>
+        <v>356.0488638441257</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396842</v>
+        <v>249.5924026807679</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396842</v>
+        <v>154.5021138273212</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396842</v>
+        <v>94.70702737294528</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396842</v>
+        <v>94.70702737294528</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396842</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396842</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114677</v>
+        <v>42.50045791160444</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437496</v>
+        <v>61.4622233848327</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369076</v>
+        <v>93.87090076414863</v>
       </c>
       <c r="L9" t="n">
-        <v>111.38469381938</v>
+        <v>137.448366979838</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767957</v>
+        <v>188.3012146372539</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943324</v>
+        <v>240.4999858547908</v>
       </c>
       <c r="O9" t="n">
-        <v>262.1879905006649</v>
+        <v>288.2516636611235</v>
       </c>
       <c r="P9" t="n">
-        <v>300.5129218025269</v>
+        <v>326.5765949629857</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328062</v>
+        <v>444.469666400022</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238121</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="T9" t="n">
-        <v>296.3970358980944</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="U9" t="n">
-        <v>176.1102575723767</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="V9" t="n">
-        <v>55.82347924665896</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="W9" t="n">
-        <v>9.526712843396842</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="X9" t="n">
-        <v>9.526712843396842</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.526712843396842</v>
+        <v>476.3356421698438</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.3106552473246</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="C10" t="n">
-        <v>213.3106552473246</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="D10" t="n">
-        <v>213.3106552473246</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="E10" t="n">
-        <v>213.3106552473246</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="F10" t="n">
-        <v>213.3106552473246</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G10" t="n">
-        <v>213.3106552473246</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H10" t="n">
-        <v>93.02387692160686</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396842</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011149</v>
+        <v>21.42271513642511</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760667</v>
+        <v>40.97150121137699</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405238</v>
+        <v>158.8645726484133</v>
       </c>
       <c r="M10" t="n">
-        <v>270.4599735775597</v>
+        <v>185.2401374598684</v>
       </c>
       <c r="N10" t="n">
-        <v>388.3530450145956</v>
+        <v>303.1332088969046</v>
       </c>
       <c r="O10" t="n">
-        <v>412.135871766814</v>
+        <v>421.026280333941</v>
       </c>
       <c r="P10" t="n">
-        <v>432.4861886636182</v>
+        <v>462.2461375895322</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="R10" t="n">
-        <v>462.637027446444</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="S10" t="n">
-        <v>342.3502491207263</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="T10" t="n">
-        <v>342.3502491207263</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="U10" t="n">
-        <v>342.3502491207263</v>
+        <v>342.3502491207275</v>
       </c>
       <c r="V10" t="n">
-        <v>222.0634707950086</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="W10" t="n">
-        <v>213.3106552473246</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="X10" t="n">
-        <v>213.3106552473246</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.3106552473246</v>
+        <v>9.526712843396876</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.1182728769843</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C11" t="n">
-        <v>254.1182728769843</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D11" t="n">
-        <v>254.1182728769843</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E11" t="n">
         <v>47.20655154895474</v>
@@ -5038,13 +5038,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5074,19 +5074,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.402314586987</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>1081.54685999802</v>
+        <v>1748.687396312123</v>
       </c>
       <c r="X11" t="n">
-        <v>662.4043965773309</v>
+        <v>1329.544932891434</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.1182728769843</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="12">
@@ -5102,13 +5102,13 @@
         <v>436.1148439030333</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765403</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5117,28 +5117,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>888.1081691988504</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C13" t="n">
-        <v>715.5464576820754</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6684648835981</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>831.5726843696448</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>962.1770767081742</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2337.091578786626</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2094.844354690033</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1816.457722738776</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="W13" t="n">
-        <v>1552.738213270317</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X13" t="n">
-        <v>1307.346458603729</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1079.926787917838</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1310.486457285825</v>
+        <v>447.8760776233103</v>
       </c>
       <c r="C14" t="n">
-        <v>1310.486457285825</v>
+        <v>447.8760776233103</v>
       </c>
       <c r="D14" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2134.484375295481</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V14" t="n">
-        <v>2134.484375295481</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W14" t="n">
-        <v>1729.628920706515</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X14" t="n">
-        <v>1310.486457285825</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="Y14" t="n">
-        <v>1310.486457285825</v>
+        <v>874.1756481082181</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725809</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W16" t="n">
-        <v>1686.698306725809</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.53013062851</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1536.329659438081</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C17" t="n">
-        <v>1536.329659438081</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.329659438081</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>663.4738450083642</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C19" t="n">
-        <v>573.2650719193497</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D19" t="n">
-        <v>407.3870791208724</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E19" t="n">
-        <v>407.3870791208724</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,16 +5679,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>733.4227107706872</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675981</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1120.886428673516</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="C20" t="n">
-        <v>682.7439558569395</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D20" t="n">
-        <v>246.834171031384</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E20" t="n">
-        <v>246.834171031384</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F20" t="n">
-        <v>246.834171031384</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>246.834171031384</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K20" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.47212285877</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158424</v>
+        <v>1745.473006065473</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>794.0697878044699</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C22" t="n">
-        <v>621.5080762876948</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D22" t="n">
-        <v>621.5080762876948</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E22" t="n">
-        <v>451.7500725384321</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5916,46 +5916,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728194</v>
+        <v>733.422710770688</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>1317.603786189003</v>
       </c>
       <c r="N22" t="n">
-        <v>1842.060047552668</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O22" t="n">
-        <v>1959.82592890043</v>
+        <v>2005.127382498299</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2296.068376370471</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2296.068376370471</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>2017.681744419214</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1730.726236289645</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W22" t="n">
-        <v>1458.699831875936</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X22" t="n">
-        <v>1213.308077209349</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.888406523457</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2148.556325916849</v>
+        <v>1144.102679307048</v>
       </c>
       <c r="C23" t="n">
-        <v>1710.413853100273</v>
+        <v>705.9602064904711</v>
       </c>
       <c r="D23" t="n">
-        <v>1274.504068274717</v>
+        <v>705.9602064904711</v>
       </c>
       <c r="E23" t="n">
-        <v>840.7293234330123</v>
+        <v>705.9602064904711</v>
       </c>
       <c r="F23" t="n">
-        <v>412.86189384222</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O23" t="n">
         <v>1775.96950697326</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U23" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V23" t="n">
-        <v>2148.556325916849</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W23" t="n">
-        <v>2148.556325916849</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X23" t="n">
-        <v>2148.556325916849</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y23" t="n">
-        <v>2148.556325916849</v>
+        <v>1144.102679307048</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
         <v>341.0245550495863</v>
@@ -6062,7 +6062,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043086</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698897</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>299.093514772602</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J25" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L25" t="n">
-        <v>688.1212571728194</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M25" t="n">
-        <v>1272.302332591134</v>
+        <v>992.6864461505243</v>
       </c>
       <c r="N25" t="n">
-        <v>1842.060047552668</v>
+        <v>1120.185357954414</v>
       </c>
       <c r="O25" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P25" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.2588091910869</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>483.1163363745102</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X26" t="n">
-        <v>1688.947492710957</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>1280.661369010611</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D28" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>2315.903797838376</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>701.7439652528263</v>
+        <v>1060.10274410208</v>
       </c>
       <c r="C29" t="n">
-        <v>701.7439652528263</v>
+        <v>1060.10274410208</v>
       </c>
       <c r="D29" t="n">
-        <v>265.8341804272708</v>
+        <v>1060.10274410208</v>
       </c>
       <c r="E29" t="n">
-        <v>265.8341804272708</v>
+        <v>1060.10274410208</v>
       </c>
       <c r="F29" t="n">
-        <v>265.8341804272708</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>265.8341804272708</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X29" t="n">
-        <v>1536.329659438081</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y29" t="n">
-        <v>1128.043535737734</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F31" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M31" t="n">
         <v>1066.127311827553</v>
@@ -6636,37 +6636,37 @@
         <v>1635.885026789087</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.877393424667</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.877393424667</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V31" t="n">
-        <v>1756.921885295098</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1154.573267142144</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286703</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
         <v>1775.96950697326</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662535</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184049</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1698.173566117875</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W32" t="n">
-        <v>1293.318111528908</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X32" t="n">
-        <v>1154.573267142144</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y32" t="n">
-        <v>1154.573267142144</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>732.1113136517137</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D34" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871986</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
@@ -6864,13 +6864,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O34" t="n">
         <v>1657.620488527957</v>
@@ -6879,7 +6879,7 @@
         <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
@@ -6888,22 +6888,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1849.01926465316</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="C35" t="n">
-        <v>1410.876791836584</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="D35" t="n">
-        <v>974.9670070110283</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="E35" t="n">
-        <v>974.9670070110283</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="F35" t="n">
         <v>716.4307943255671</v>
@@ -6934,16 +6934,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,31 +6958,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>1849.01926465316</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W35" t="n">
-        <v>1849.01926465316</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X35" t="n">
-        <v>1849.01926465316</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y35" t="n">
-        <v>1849.01926465316</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.5506608361497</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>754.9889493193747</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>589.1109565208974</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>419.3529527716346</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
         <v>242.6458987333908</v>
@@ -7098,22 +7098,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>320.0013704257351</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>862.082053811994</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M37" t="n">
-        <v>992.6864461505235</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951972</v>
+        <v>2175.052140384754</v>
       </c>
       <c r="U37" t="n">
-        <v>2151.162617450894</v>
+        <v>1896.665508433497</v>
       </c>
       <c r="V37" t="n">
-        <v>1864.207109321325</v>
+        <v>1609.710000303927</v>
       </c>
       <c r="W37" t="n">
-        <v>1592.180704907616</v>
+        <v>1337.683595890219</v>
       </c>
       <c r="X37" t="n">
-        <v>1346.788950241029</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="Y37" t="n">
-        <v>1119.369279555137</v>
+        <v>1092.291841223631</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F38" t="n">
         <v>47.20655154895473</v>
@@ -7171,22 +7171,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
         <v>1775.969506973259</v>
@@ -7204,22 +7204,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U38" t="n">
-        <v>2202.043447044273</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V38" t="n">
-        <v>2202.043447044273</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W38" t="n">
-        <v>2202.043447044273</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X38" t="n">
-        <v>1782.900983623584</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.5496021349386</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
         <v>47.20655154895473</v>
@@ -7332,19 +7332,19 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M40" t="n">
-        <v>1272.302332591134</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1399.801244395024</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
         <v>1657.620488527956</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.795414797534</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2061.54819070094</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.161558749683</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.206050620114</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.179646206405</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X40" t="n">
-        <v>978.7878915398176</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.3682208539258</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>744.7955325958366</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C41" t="n">
-        <v>744.7955325958366</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D41" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867025</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2197.638199214371</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1938.567507735885</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V41" t="n">
-        <v>1575.950557669711</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W41" t="n">
-        <v>1171.095103080744</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="X41" t="n">
-        <v>1171.095103080744</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="Y41" t="n">
-        <v>1171.095103080744</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="42">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1036.997366370204</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="C43" t="n">
-        <v>864.4356548534284</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D43" t="n">
-        <v>698.5576620549512</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E43" t="n">
-        <v>528.7996583056884</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F43" t="n">
-        <v>352.0926042674446</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G43" t="n">
-        <v>187.351423879963</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>55.00736325927889</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7602,19 +7602,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1973.653814855378</v>
+        <v>1765.606271034329</v>
       </c>
       <c r="V43" t="n">
-        <v>1973.653814855378</v>
+        <v>1478.650762904759</v>
       </c>
       <c r="W43" t="n">
-        <v>1701.62741044167</v>
+        <v>1206.624358491051</v>
       </c>
       <c r="X43" t="n">
-        <v>1456.235655775082</v>
+        <v>1206.624358491051</v>
       </c>
       <c r="Y43" t="n">
-        <v>1228.815985089191</v>
+        <v>979.2046878051592</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.20655154895474</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C44" t="n">
-        <v>47.20655154895474</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7645,13 +7645,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2327.477805288524</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2068.407113810038</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1705.790163743865</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>1300.934709154898</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X44" t="n">
-        <v>881.7922457342091</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="Y44" t="n">
-        <v>473.5061220338625</v>
+        <v>1320.76150051161</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.854757918509</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7848,10 +7848,10 @@
         <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.6368154538427</v>
+        <v>93.20592909703151</v>
       </c>
       <c r="R9" t="n">
-        <v>106.497025394663</v>
+        <v>19.60096916515374</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>93.81551078038294</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442522</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>93.0754127318296</v>
+        <v>93.07541273182994</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698777</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>21.08034379675439</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.06055447061851</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,19 +8850,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>30.81754489126183</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9327,19 +9327,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825041</v>
+        <v>175.7179764032068</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,10 +9564,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>45.7590440382512</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>45.75904403825098</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371569</v>
+        <v>453.2517688993041</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>45.75904403825098</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042871</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10512,16 +10512,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10746,16 +10746,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>118.2717723303425</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>141.4680432173443</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.62967161639972</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>224.5943932785385</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.99836582174873</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.656881591941357</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>119.978634436308</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>34.88785616368796</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>32.89521443296795</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>257.8515264887142</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>69.52134278359608</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>205.8522272625547</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>56.88249619102055</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.52940904348299</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>145.3425294405765</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>256.3105378457237</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>69.39299265392374</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>163.8874996553061</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>79.36566404431497</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>166.9303013101007</v>
       </c>
       <c r="G23" t="n">
-        <v>33.50887553698499</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8692533779059</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>56.59250992092788</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66.22804055873036</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24508,10 +24508,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>265.3352856806301</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>231.6232238184768</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>83.35352501613693</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>50.58298335199572</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>114.8692533779055</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>69.52134278359615</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>335.3498018237962</v>
       </c>
       <c r="X32" t="n">
-        <v>277.5936428435855</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>114.8692533779052</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>167.6379047362778</v>
+        <v>22.06214419180498</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>56.40206916327406</v>
       </c>
       <c r="U37" t="n">
-        <v>211.5117283456777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>221.1760088098322</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25444,19 +25444,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>99.7786954642726</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>87.01543208710711</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>282.6597747172268</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25645,7 +25645,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>48.5910545645462</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>100.4625278782731</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74153010489353</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>69.6356972489055</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>177.1322645779585</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.1791147496901</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>166.0458048560681</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>385692.9418780347</v>
+        <v>385692.9418780348</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>385692.9418780346</v>
+        <v>385692.9418780347</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>300946.1639116303</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="E2" t="n">
         <v>180892.2069959399</v>
@@ -26328,34 +26328,34 @@
         <v>180892.2069959399</v>
       </c>
       <c r="G2" t="n">
+        <v>180892.2069959399</v>
+      </c>
+      <c r="H2" t="n">
+        <v>180892.2069959399</v>
+      </c>
+      <c r="I2" t="n">
         <v>180892.20699594</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>180892.2069959399</v>
+      </c>
+      <c r="K2" t="n">
         <v>180892.20699594</v>
-      </c>
-      <c r="I2" t="n">
-        <v>180892.2069959399</v>
-      </c>
-      <c r="J2" t="n">
-        <v>180892.20699594</v>
-      </c>
-      <c r="K2" t="n">
-        <v>180892.2069959399</v>
       </c>
       <c r="L2" t="n">
         <v>180892.20699594</v>
       </c>
       <c r="M2" t="n">
+        <v>180892.20699594</v>
+      </c>
+      <c r="N2" t="n">
         <v>180892.2069959399</v>
       </c>
-      <c r="N2" t="n">
-        <v>180892.20699594</v>
-      </c>
       <c r="O2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="P2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730575</v>
+        <v>117708.4675730579</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180447</v>
+        <v>439858.2450180441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.0660031019</v>
+        <v>30139.06600310194</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.581559748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>272441.6497238187</v>
+        <v>272441.6497238186</v>
       </c>
       <c r="E4" t="n">
         <v>16511.41869660761</v>
@@ -26435,13 +26435,13 @@
         <v>16511.41869660761</v>
       </c>
       <c r="H4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="I4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="J4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="K4" t="n">
         <v>16511.41869660761</v>
@@ -26456,10 +26456,10 @@
         <v>16511.41869660761</v>
       </c>
       <c r="O4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="P4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239233</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="G5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="H5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="L5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="H5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="K5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="L5" t="n">
-        <v>46051.08120963783</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770409</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.05911770415</v>
       </c>
       <c r="D6" t="n">
-        <v>-124787.9706322837</v>
+        <v>-124787.9706322842</v>
       </c>
       <c r="E6" t="n">
-        <v>-321528.5379283502</v>
+        <v>-322082.4183715716</v>
       </c>
       <c r="F6" t="n">
-        <v>118329.7070896944</v>
+        <v>117775.8266464726</v>
       </c>
       <c r="G6" t="n">
-        <v>118329.7070896946</v>
+        <v>117775.8266464725</v>
       </c>
       <c r="H6" t="n">
-        <v>118329.7070896946</v>
+        <v>117775.8266464725</v>
       </c>
       <c r="I6" t="n">
-        <v>118329.7070896945</v>
+        <v>117775.8266464726</v>
       </c>
       <c r="J6" t="n">
-        <v>118329.7070896945</v>
+        <v>117775.8266464726</v>
       </c>
       <c r="K6" t="n">
-        <v>118329.7070896945</v>
+        <v>117775.8266464726</v>
       </c>
       <c r="L6" t="n">
-        <v>88190.6410865926</v>
+        <v>87636.76064337065</v>
       </c>
       <c r="M6" t="n">
-        <v>955.125529946381</v>
+        <v>401.245086724563</v>
       </c>
       <c r="N6" t="n">
-        <v>118329.7070896945</v>
+        <v>117775.8266464725</v>
       </c>
       <c r="O6" t="n">
-        <v>118329.7070896946</v>
+        <v>117775.8266464725</v>
       </c>
       <c r="P6" t="n">
-        <v>118329.7070896945</v>
+        <v>117775.8266464726</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480442</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
@@ -26795,31 +26795,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="G4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="I4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="J4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="K4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="G4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="H4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.0818943619344</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480442</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184168</v>
+        <v>372.4514459184164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424606</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194736</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>314.6771375459504</v>
+        <v>314.67713754595</v>
       </c>
       <c r="D8" t="n">
-        <v>312.4667764348394</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>345.2317629308413</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796773</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -27915,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>287.6501580036902</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>295.8671282440214</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>1.006951526504579</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>33.98207493648367</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809192</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
-        <v>8.975812792898171</v>
+        <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.47593365518763</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221616012</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>137.6357279849084</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28028,10 +28028,10 @@
         <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>17.9081441295284</v>
+        <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>35.60310718843918</v>
+        <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>156.5554896577344</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058133</v>
+        <v>165.0020425058129</v>
       </c>
       <c r="W10" t="n">
-        <v>260.6408529773642</v>
+        <v>150.2222298271104</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>133.8179941493974</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529823</v>
+        <v>0.3788964107529838</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623981</v>
+        <v>3.880372866623996</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555436</v>
+        <v>14.60740387555442</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214596</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931971</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990131</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462965</v>
+        <v>66.53089438462992</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168157</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.8397826272566</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679234</v>
+        <v>54.48577748679255</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670115</v>
+        <v>40.91654977670131</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196205</v>
+        <v>23.80085166196214</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033593</v>
+        <v>8.634101960033627</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071181</v>
+        <v>1.658619038071187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023858</v>
+        <v>0.0303117128602387</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.202727452225051</v>
+        <v>0.2027274522250518</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95792039385773</v>
+        <v>1.957920393857738</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888819</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780625</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688466</v>
+        <v>32.73603775688479</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211031</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852684</v>
+        <v>51.3665127852686</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286536</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619448</v>
+        <v>48.23401798619467</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200626</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542932</v>
+        <v>25.87798144542942</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779747</v>
+        <v>12.58688514779752</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531098</v>
+        <v>3.765573509531114</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457097</v>
+        <v>0.817133897345713</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322705</v>
+        <v>0.0133373323832271</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889916</v>
+        <v>0.1699598858889922</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540308</v>
+        <v>1.511097894540314</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643493</v>
+        <v>5.111157295643513</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323517</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055738</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207789</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803528</v>
+        <v>26.64198465803539</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063088</v>
+        <v>26.00849781063098</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547311</v>
+        <v>24.0230573254732</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333766</v>
+        <v>20.55587565333774</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839547</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517746</v>
+        <v>7.642014505517776</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083606</v>
+        <v>2.961937284083618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075092</v>
+        <v>0.726192239707512</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308641</v>
+        <v>0.009270539230308678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32332,19 +32332,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642297</v>
+        <v>14.19478239642302</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214596</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931972</v>
+        <v>48.19704430931991</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990131</v>
+        <v>59.79269533990153</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462965</v>
+        <v>66.53089438462993</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168157</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725657</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679236</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670112</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196204</v>
+        <v>23.80085166196216</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888819</v>
+        <v>33.30681320020966</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780625</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688466</v>
+        <v>32.73603775688479</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421103</v>
+        <v>44.01764264211047</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526841</v>
+        <v>51.36651278526861</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286536</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619449</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006258</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.51479689927203</v>
+        <v>119.083910542461</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424605</v>
+        <v>32.18785431295129</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143237</v>
+        <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055738</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207791</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M10" t="n">
-        <v>119.0839105424605</v>
+        <v>26.6419846580354</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547313</v>
+        <v>119.083910542461</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333764</v>
+        <v>41.63621945009214</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.29237727901398</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,25 +35570,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>159.6043244911502</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35743,7 +35743,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35825,7 +35825,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>170.881065874915</v>
+        <v>300.8399982398713</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,13 +36120,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>170.8810658749157</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N22" t="n">
         <v>575.512843395489</v>
@@ -36296,7 +36296,7 @@
         <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>147.5459694702545</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,7 +36375,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>585.1753975240813</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>147.5459694702545</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,16 +36831,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36852,7 +36852,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409517</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O34" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>216.0496516915123</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
@@ -37484,7 +37484,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,13 +37551,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>260.4234789221541</v>
+        <v>383.6017480903504</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
@@ -37785,16 +37785,16 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.10166275847632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
